--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnc-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnc-Itga7.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H2">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I2">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J2">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.876638333333333</v>
+        <v>1.533541666666667</v>
       </c>
       <c r="N2">
-        <v>5.629915</v>
+        <v>4.600625</v>
       </c>
       <c r="O2">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581092</v>
       </c>
       <c r="P2">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581093</v>
       </c>
       <c r="Q2">
-        <v>3.736919261407222</v>
+        <v>9.890966498750002</v>
       </c>
       <c r="R2">
-        <v>33.632273352665</v>
+        <v>89.01869848875002</v>
       </c>
       <c r="S2">
-        <v>0.0002935852583206685</v>
+        <v>0.0006953588464803957</v>
       </c>
       <c r="T2">
-        <v>0.0002935852583206685</v>
+        <v>0.0006953588464803958</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H3">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I3">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J3">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.948587333333333</v>
+        <v>3.948587333333334</v>
       </c>
       <c r="N3">
         <v>11.845762</v>
       </c>
       <c r="O3">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032411</v>
       </c>
       <c r="P3">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032412</v>
       </c>
       <c r="Q3">
-        <v>7.862757463273555</v>
+        <v>25.46741694751601</v>
       </c>
       <c r="R3">
-        <v>70.76481716946199</v>
+        <v>229.2067525276441</v>
       </c>
       <c r="S3">
-        <v>0.000617725329205709</v>
+        <v>0.001790420953675056</v>
       </c>
       <c r="T3">
-        <v>0.0006177253292057089</v>
+        <v>0.001790420953675057</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H4">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I4">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J4">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>66.84467933333333</v>
+        <v>70.69501233333334</v>
       </c>
       <c r="N4">
-        <v>200.534038</v>
+        <v>212.085037</v>
       </c>
       <c r="O4">
-        <v>0.9166304777167198</v>
+        <v>0.921160529766436</v>
       </c>
       <c r="P4">
-        <v>0.9166304777167198</v>
+        <v>0.9211605297664361</v>
       </c>
       <c r="Q4">
-        <v>133.1067181600376</v>
+        <v>455.9654385769661</v>
       </c>
       <c r="R4">
-        <v>1197.960463440338</v>
+        <v>4103.688947192694</v>
       </c>
       <c r="S4">
-        <v>0.01045732259693384</v>
+        <v>0.03205547217694815</v>
       </c>
       <c r="T4">
-        <v>0.01045732259693384</v>
+        <v>0.03205547217694815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H5">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I5">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J5">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2544423333333333</v>
+        <v>0.568453</v>
       </c>
       <c r="N5">
-        <v>0.763327</v>
+        <v>1.705359</v>
       </c>
       <c r="O5">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428811</v>
       </c>
       <c r="P5">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428812</v>
       </c>
       <c r="Q5">
-        <v>0.5066668624752222</v>
+        <v>3.666382010562001</v>
       </c>
       <c r="R5">
-        <v>4.560001762276999</v>
+        <v>32.99743809505801</v>
       </c>
       <c r="S5">
-        <v>3.980549519453508E-05</v>
+        <v>0.0002577555151908624</v>
       </c>
       <c r="T5">
-        <v>3.980549519453507E-05</v>
+        <v>0.0002577555151908624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>369.083199</v>
       </c>
       <c r="I6">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J6">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.876638333333333</v>
+        <v>1.533541666666667</v>
       </c>
       <c r="N6">
-        <v>5.629915</v>
+        <v>4.600625</v>
       </c>
       <c r="O6">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581092</v>
       </c>
       <c r="P6">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581093</v>
       </c>
       <c r="Q6">
-        <v>230.8785598108984</v>
+        <v>188.6681547110417</v>
       </c>
       <c r="R6">
-        <v>2077.907038298085</v>
+        <v>1698.013392399375</v>
       </c>
       <c r="S6">
-        <v>0.01813861549614038</v>
+        <v>0.0132638271946462</v>
       </c>
       <c r="T6">
-        <v>0.01813861549614038</v>
+        <v>0.0132638271946462</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>369.083199</v>
       </c>
       <c r="I7">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J7">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.948587333333333</v>
+        <v>3.948587333333334</v>
       </c>
       <c r="N7">
         <v>11.845762</v>
       </c>
       <c r="O7">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032411</v>
       </c>
       <c r="P7">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032412</v>
       </c>
       <c r="Q7">
-        <v>485.7857481725153</v>
+        <v>485.7857481725154</v>
       </c>
       <c r="R7">
         <v>4372.071733552638</v>
       </c>
       <c r="S7">
-        <v>0.03816500287780382</v>
+        <v>0.03415191200258803</v>
       </c>
       <c r="T7">
-        <v>0.03816500287780382</v>
+        <v>0.03415191200258804</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>369.083199</v>
       </c>
       <c r="I8">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J8">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>66.84467933333333</v>
+        <v>70.69501233333334</v>
       </c>
       <c r="N8">
-        <v>200.534038</v>
+        <v>212.085037</v>
       </c>
       <c r="O8">
-        <v>0.9166304777167198</v>
+        <v>0.921160529766436</v>
       </c>
       <c r="P8">
-        <v>0.9166304777167198</v>
+        <v>0.9211605297664361</v>
       </c>
       <c r="Q8">
-        <v>8223.749361491951</v>
+        <v>8697.447101777041</v>
       </c>
       <c r="R8">
-        <v>74013.74425342758</v>
+        <v>78277.02391599336</v>
       </c>
       <c r="S8">
-        <v>0.6460860970672567</v>
+        <v>0.6114515487217813</v>
       </c>
       <c r="T8">
-        <v>0.6460860970672567</v>
+        <v>0.6114515487217814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>369.083199</v>
       </c>
       <c r="I9">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J9">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2544423333333333</v>
+        <v>0.568453</v>
       </c>
       <c r="N9">
-        <v>0.763327</v>
+        <v>1.705359</v>
       </c>
       <c r="O9">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428811</v>
       </c>
       <c r="P9">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428812</v>
       </c>
       <c r="Q9">
-        <v>31.30346344923034</v>
+        <v>69.93548390704899</v>
       </c>
       <c r="R9">
-        <v>281.731171043073</v>
+        <v>629.419355163441</v>
       </c>
       <c r="S9">
-        <v>0.002459307991474534</v>
+        <v>0.004916633518453394</v>
       </c>
       <c r="T9">
-        <v>0.002459307991474534</v>
+        <v>0.004916633518453396</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H10">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I10">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J10">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.876638333333333</v>
+        <v>1.533541666666667</v>
       </c>
       <c r="N10">
-        <v>5.629915</v>
+        <v>4.600625</v>
       </c>
       <c r="O10">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581092</v>
       </c>
       <c r="P10">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581093</v>
       </c>
       <c r="Q10">
-        <v>92.87177970273667</v>
+        <v>85.55688204159722</v>
       </c>
       <c r="R10">
-        <v>835.8460173246301</v>
+        <v>770.0119383743751</v>
       </c>
       <c r="S10">
-        <v>0.007296327142069591</v>
+        <v>0.006014855556575072</v>
       </c>
       <c r="T10">
-        <v>0.007296327142069591</v>
+        <v>0.006014855556575074</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H11">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I11">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J11">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.948587333333333</v>
+        <v>3.948587333333334</v>
       </c>
       <c r="N11">
         <v>11.845762</v>
       </c>
       <c r="O11">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032411</v>
       </c>
       <c r="P11">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032412</v>
       </c>
       <c r="Q11">
-        <v>195.4091667236627</v>
+        <v>220.2932127975731</v>
       </c>
       <c r="R11">
-        <v>1758.682500512964</v>
+        <v>1982.638915178158</v>
       </c>
       <c r="S11">
-        <v>0.01535201771236272</v>
+        <v>0.0154871452003947</v>
       </c>
       <c r="T11">
-        <v>0.01535201771236272</v>
+        <v>0.0154871452003947</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H12">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I12">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J12">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>66.84467933333333</v>
+        <v>70.69501233333334</v>
       </c>
       <c r="N12">
-        <v>200.534038</v>
+        <v>212.085037</v>
       </c>
       <c r="O12">
-        <v>0.9166304777167198</v>
+        <v>0.921160529766436</v>
       </c>
       <c r="P12">
-        <v>0.9166304777167198</v>
+        <v>0.9211605297664361</v>
       </c>
       <c r="Q12">
-        <v>3308.034490758071</v>
+        <v>3944.102049916432</v>
       </c>
       <c r="R12">
-        <v>29772.31041682264</v>
+        <v>35496.91844924788</v>
       </c>
       <c r="S12">
-        <v>0.2598905923745234</v>
+        <v>0.277279905070698</v>
       </c>
       <c r="T12">
-        <v>0.2598905923745234</v>
+        <v>0.277279905070698</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H13">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I13">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J13">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2544423333333333</v>
+        <v>0.568453</v>
       </c>
       <c r="N13">
-        <v>0.763327</v>
+        <v>1.705359</v>
       </c>
       <c r="O13">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428811</v>
       </c>
       <c r="P13">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428812</v>
       </c>
       <c r="Q13">
-        <v>12.59193735343267</v>
+        <v>31.71421248234234</v>
       </c>
       <c r="R13">
-        <v>113.327436180894</v>
+        <v>285.427912341081</v>
       </c>
       <c r="S13">
-        <v>0.0009892660028392177</v>
+        <v>0.002229585775216478</v>
       </c>
       <c r="T13">
-        <v>0.0009892660028392177</v>
+        <v>0.002229585775216478</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H14">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I14">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J14">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.876638333333333</v>
+        <v>1.533541666666667</v>
       </c>
       <c r="N14">
-        <v>5.629915</v>
+        <v>4.600625</v>
       </c>
       <c r="O14">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581092</v>
       </c>
       <c r="P14">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581093</v>
       </c>
       <c r="Q14">
-        <v>0.07020691668833333</v>
+        <v>0.1152783718055555</v>
       </c>
       <c r="R14">
-        <v>0.6318622501950001</v>
+        <v>1.03750534625</v>
       </c>
       <c r="S14">
-        <v>5.51569737797337E-06</v>
+        <v>8.104348109255015E-06</v>
       </c>
       <c r="T14">
-        <v>5.51569737797337E-06</v>
+        <v>8.104348109255018E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H15">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I15">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J15">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.948587333333333</v>
+        <v>3.948587333333334</v>
       </c>
       <c r="N15">
         <v>11.845762</v>
       </c>
       <c r="O15">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032411</v>
       </c>
       <c r="P15">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032412</v>
       </c>
       <c r="Q15">
-        <v>0.1477206007273333</v>
+        <v>0.2968205746297778</v>
       </c>
       <c r="R15">
-        <v>1.329485406546</v>
+        <v>2.671385171668</v>
       </c>
       <c r="S15">
-        <v>1.160543958541054E-05</v>
+        <v>2.086720366632467E-05</v>
       </c>
       <c r="T15">
-        <v>1.160543958541054E-05</v>
+        <v>2.086720366632467E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H16">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I16">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J16">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>66.84467933333333</v>
+        <v>70.69501233333334</v>
       </c>
       <c r="N16">
-        <v>200.534038</v>
+        <v>212.085037</v>
       </c>
       <c r="O16">
-        <v>0.9166304777167198</v>
+        <v>0.921160529766436</v>
       </c>
       <c r="P16">
-        <v>0.9166304777167198</v>
+        <v>0.9211605297664361</v>
       </c>
       <c r="Q16">
-        <v>2.500726298539333</v>
+        <v>5.314238337113111</v>
       </c>
       <c r="R16">
-        <v>22.506536686854</v>
+        <v>47.828145034018</v>
       </c>
       <c r="S16">
-        <v>0.0001964656780059756</v>
+        <v>0.0003736037970085</v>
       </c>
       <c r="T16">
-        <v>0.0001964656780059756</v>
+        <v>0.0003736037970085001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H17">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I17">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J17">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2544423333333333</v>
+        <v>0.568453</v>
       </c>
       <c r="N17">
-        <v>0.763327</v>
+        <v>1.705359</v>
       </c>
       <c r="O17">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428811</v>
       </c>
       <c r="P17">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428812</v>
       </c>
       <c r="Q17">
-        <v>0.009518942132333333</v>
+        <v>0.04273136994733333</v>
       </c>
       <c r="R17">
-        <v>0.085670479191</v>
+        <v>0.384582329526</v>
       </c>
       <c r="S17">
-        <v>7.478409056684298E-07</v>
+        <v>3.004118568075212E-06</v>
       </c>
       <c r="T17">
-        <v>7.478409056684298E-07</v>
+        <v>3.004118568075213E-06</v>
       </c>
     </row>
   </sheetData>
